--- a/students/management/attendance_data2.xlsx
+++ b/students/management/attendance_data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay\python pro\attendance\students\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C045E7-11D9-4628-9E96-6F5437DE83BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380CF358-09F3-4BB2-BE33-ED6B617DFA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/students/management/attendance_data2.xlsx
+++ b/students/management/attendance_data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vijay\python pro\attendance\students\management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380CF358-09F3-4BB2-BE33-ED6B617DFA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC311E2-239D-420A-B90C-F86198E2B9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="90">
   <si>
     <t>Student ID</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>nan</t>
+  </si>
+  <si>
+    <t>vijay gholve</t>
   </si>
 </sst>
 </file>
@@ -655,17 +658,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="203" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -676,25 +679,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>45496</v>
+        <v>45497</v>
       </c>
       <c r="D1" s="2">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="E1" s="2">
-        <v>45498</v>
+        <v>45499</v>
       </c>
       <c r="F1" s="2">
-        <v>45499</v>
+        <v>45500</v>
       </c>
       <c r="G1" s="2">
-        <v>45500</v>
+        <v>45501</v>
       </c>
       <c r="H1" s="2">
-        <v>45501</v>
+        <v>45502</v>
       </c>
       <c r="I1" s="2">
-        <v>45502</v>
+        <v>45503</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -720,10 +723,10 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -749,10 +752,10 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -778,10 +781,10 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -807,10 +810,10 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -836,10 +839,10 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -865,10 +868,10 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -894,10 +897,10 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -923,10 +926,10 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -952,10 +955,10 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -981,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="s">
         <v>3</v>
@@ -1010,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
         <v>3</v>
@@ -1039,7 +1042,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" t="s">
         <v>3</v>
@@ -1097,10 +1100,10 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1126,10 +1129,10 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1184,10 +1187,10 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1213,10 +1216,10 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1242,10 +1245,10 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1271,10 +1274,10 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1329,10 +1332,10 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1358,10 +1361,10 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1387,10 +1390,10 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1416,10 +1419,10 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1445,10 +1448,10 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1474,10 +1477,10 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1503,10 +1506,10 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1532,10 +1535,10 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1561,10 +1564,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1590,10 +1593,10 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1619,10 +1622,10 @@
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1648,10 +1651,10 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1677,10 +1680,10 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1706,10 +1709,10 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1735,10 +1738,10 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1764,10 +1767,10 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1793,10 +1796,10 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1822,10 +1825,10 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2025,10 +2028,10 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2199,10 +2202,10 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2228,10 +2231,10 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2257,10 +2260,10 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2286,10 +2289,10 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2315,10 +2318,10 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2982,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -3040,10 +3043,10 @@
         <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I82" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -3069,10 +3072,10 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -3098,10 +3101,10 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -3275,6 +3278,32 @@
         <v>3</v>
       </c>
       <c r="I90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" t="s">
         <v>3</v>
       </c>
     </row>
